--- a/duesRecords.xlsx
+++ b/duesRecords.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\python-automations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A1AE12-DBEE-450A-A661-70C741FD8F87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="120" windowWidth="12420" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
   <si>
     <t>Member</t>
   </si>
@@ -43,24 +49,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>alice@example.com</t>
-  </si>
-  <si>
-    <t>bob@example.com</t>
-  </si>
-  <si>
-    <t>carol@example.com</t>
-  </si>
-  <si>
-    <t>david@example.com</t>
-  </si>
-  <si>
-    <t>eve@example.com</t>
-  </si>
-  <si>
-    <t>fred@example.com</t>
-  </si>
-  <si>
     <t>Bob</t>
   </si>
   <si>
@@ -77,13 +65,25 @@
   </si>
   <si>
     <t>paid</t>
+  </si>
+  <si>
+    <t>mihail.gaberov@gmail.com</t>
+  </si>
+  <si>
+    <t>mihail.gaberov@zoho.com</t>
+  </si>
+  <si>
+    <t>mihail.gaberov@abv.bg</t>
+  </si>
+  <si>
+    <t>bionicman@abv.bg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +95,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,14 +125,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -132,6 +143,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -180,7 +194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,9 +227,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,6 +279,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -423,19 +471,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,146 +509,154 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1C08B6E8-6E13-490B-9085-7C916EF53E49}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{4F4E4BA1-F0DA-49C7-8032-5E2817553F27}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{D61932D5-2ED1-4C6C-A8E1-8548206FEF9D}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{5FF1944E-E246-4744-8507-3880E9932435}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{03FFE57F-7F79-425B-B47C-1124CAE6CE64}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{9E2C00A2-5AB7-45A8-A346-E83590DD5050}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>